--- a/MoPanda/data/core/Rel-k/MICP - 3V.xlsx
+++ b/MoPanda/data/core/Rel-k/MICP - 3V.xlsx
@@ -1102,7 +1102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1136,6 +1136,26 @@
           <t>krg</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Capillary Pressure_Reservoir (psi)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capillary Pressure_Reservoir (MPa)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Normalized Wetting-phase Saturation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Normalized Wetting-phase Saturation_imbibition</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1153,6 +1173,18 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.1347222222222222</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0009288773888888889</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.73434694143542</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1170,6 +1202,18 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2694444444444444</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.001857754777777778</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.73434694143542</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1187,6 +1231,18 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.4034722222222222</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.002781844138888889</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.73434694143542</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1204,6 +1260,18 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.5381944444444444</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.003710721527777778</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.73434694143542</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1221,6 +1289,18 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.6729166666666666</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.004639598916666666</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.73434694143542</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1238,6 +1318,18 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.9444444444444445</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.006511717777777777</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.73434694143542</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1255,6 +1347,18 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>1.208333333333333</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.008331168333333331</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.73434694143542</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1272,6 +1376,18 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>1.618055555555556</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01115610472222222</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.73434694143542</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1289,6 +1405,18 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>2.020833333333333</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01393316083333333</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.73434694143542</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1306,6 +1434,18 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>2.555555555555555</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.01761994222222222</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.73434694143542</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1323,6 +1463,18 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>3.229166666666667</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.02226432916666667</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.73434694143542</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1340,6 +1492,18 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>4.034722222222221</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02781844138888889</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.73434694143542</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1357,6 +1521,18 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>4.847222222222222</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03342043388888889</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.73434694143542</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1373,6 +1549,18 @@
       </c>
       <c r="E15" t="n">
         <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6.458333333333334</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04452865833333334</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.73434694143542</v>
       </c>
     </row>
     <row r="16">
@@ -1391,6 +1579,18 @@
       <c r="E16" t="n">
         <v>0.0002476899546149037</v>
       </c>
+      <c r="F16" t="n">
+        <v>8.472222222222221</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05841393888888888</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9616740910339986</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.667876518442503</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1408,6 +1608,18 @@
       <c r="E17" t="n">
         <v>0.0365795695881352</v>
       </c>
+      <c r="F17" t="n">
+        <v>10.48611111111111</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.07229921944444444</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7719241542138934</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.338784295880989</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1425,6 +1637,18 @@
       <c r="E18" t="n">
         <v>0.3361439730074737</v>
       </c>
+      <c r="F18" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.09480295</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4135769053817794</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.7172858408972151</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1442,6 +1666,18 @@
       <c r="E19" t="n">
         <v>0.5604289453744592</v>
       </c>
+      <c r="F19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1206583</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.248008978648653</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4301336135678137</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1459,6 +1695,18 @@
       <c r="E20" t="n">
         <v>0.6762090282129066</v>
       </c>
+      <c r="F20" t="n">
+        <v>22.22222222222222</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1532168888888889</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.17442323343393</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3025104014214128</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1476,6 +1724,18 @@
       <c r="E21" t="n">
         <v>0.7544584858061173</v>
       </c>
+      <c r="F21" t="n">
+        <v>28.26388888888889</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1948727305555556</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1280488835850688</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.2220811895999842</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1493,6 +1753,18 @@
       <c r="E22" t="n">
         <v>0.8091721211342195</v>
       </c>
+      <c r="F22" t="n">
+        <v>36.31944444444444</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2504138527777777</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.09700489732260711</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1682401469757206</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1510,6 +1782,18 @@
       <c r="E23" t="n">
         <v>0.8520095017968572</v>
       </c>
+      <c r="F23" t="n">
+        <v>46.45833333333334</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3203190583333334</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.07341656873551163</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1273298014371179</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1527,6 +1811,18 @@
       <c r="E24" t="n">
         <v>0.8852927599385787</v>
       </c>
+      <c r="F24" t="n">
+        <v>59.23611111111111</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4084187694444444</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.05549331491016037</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.09624466098454923</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1544,6 +1840,18 @@
       <c r="E25" t="n">
         <v>0.9110075369617012</v>
       </c>
+      <c r="F25" t="n">
+        <v>75.69444444444444</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5218950277777777</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.04187458705066752</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.07262506197519646</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1561,6 +1869,18 @@
       <c r="E26" t="n">
         <v>0.9307922738176565</v>
       </c>
+      <c r="F26" t="n">
+        <v>96.52777777777777</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.6655358611111111</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.03152659162984664</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.05467804776710804</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1578,6 +1898,18 @@
       <c r="E27" t="n">
         <v>0.945967406116165</v>
       </c>
+      <c r="F27" t="n">
+        <v>122.2222222222222</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.8426928888888888</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.02366381543414827</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.04104126592090734</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1595,6 +1927,18 @@
       <c r="E28" t="n">
         <v>0.9575800191940836</v>
       </c>
+      <c r="F28" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.07730625</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.01768939749236474</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.03067955243671818</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1612,6 +1956,18 @@
       <c r="E29" t="n">
         <v>0.9664510524998777</v>
       </c>
+      <c r="F29" t="n">
+        <v>199.3055555555555</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.374163972222222</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.01314982153920064</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.02280635276693423</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1629,6 +1985,18 @@
       <c r="E30" t="n">
         <v>0.9732189235837779</v>
       </c>
+      <c r="F30" t="n">
+        <v>254.1666666666667</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.752418166666666</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.009700489732260384</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.01682401469757149</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1646,6 +2014,18 @@
       <c r="E31" t="n">
         <v>0.9783771810706063</v>
       </c>
+      <c r="F31" t="n">
+        <v>324.3055555555555</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.236008972222222</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.007079564333693963</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01227842074883741</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1663,6 +2043,18 @@
       <c r="E32" t="n">
         <v>0.9823057243522622</v>
       </c>
+      <c r="F32" t="n">
+        <v>413.1944444444445</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.848876527777778</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.005088091686433196</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.008824516254108402</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1680,6 +2072,18 @@
       <c r="E33" t="n">
         <v>0.9852960344468826</v>
       </c>
+      <c r="F33" t="n">
+        <v>527.7777777777777</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.638901111111111</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.003574899702045014</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.006200116364180165</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1697,6 +2101,18 @@
       <c r="E34" t="n">
         <v>0.9875712172212547</v>
       </c>
+      <c r="F34" t="n">
+        <v>690.2777777777777</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.759299611111111</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.002425122433064929</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.004206003674392584</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1714,6 +2130,18 @@
       <c r="E35" t="n">
         <v>0.9893017365436235</v>
       </c>
+      <c r="F35" t="n">
+        <v>902.7777777777777</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.22443611111111</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.001551480633543047</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.002690805691481672</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1731,6 +2159,18 @@
       <c r="E36" t="n">
         <v>0.9906176597037527</v>
       </c>
+      <c r="F36" t="n">
+        <v>1180.555555555555</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8.139647222222221</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0008876564177894222</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.001539504193238606</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1748,6 +2188,18 @@
       <c r="E37" t="n">
         <v>0.9916181298355718</v>
       </c>
+      <c r="F37" t="n">
+        <v>1541.666666666667</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10.62942166666667</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0003832590896597684</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0006647042299287427</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1764,6 +2216,18 @@
       </c>
       <c r="E38" t="n">
         <v>0.9923786603529973</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2020.833333333333</v>
+      </c>
+      <c r="G38" t="n">
+        <v>13.93316083333333</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +2241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1818,7 +2282,17 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>lambda</t>
+          <t>lambda_d</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>lambda_i</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Interpolated_Capillary_Pressure</t>
         </is>
       </c>
     </row>
@@ -1827,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7015389344648607</v>
+        <v>0.5782024818603175</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1836,1080 +2310,1440 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1834396715886733</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0727383837333762</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.458333333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.979669754249483</v>
+        <v>0.9832158214497946</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6811304714246821</v>
+        <v>0.5700264159252076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9064090153959266</v>
+        <v>0.9579023829328724</v>
       </c>
       <c r="D3" t="n">
-        <v>3.868292208361463e-05</v>
+        <v>1.153689040062424e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.159277275807317</v>
+        <v>0.2873825244484572</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08548281704198707</v>
+        <v>1.152610232376408e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.513122881948904</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9593395084989659</v>
+        <v>0.9664316428995892</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6607220083845038</v>
+        <v>0.5618503499900978</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8198859961237105</v>
+        <v>0.9167464602961305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002977780822624731</v>
+        <v>9.126283433059862e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1377045360624575</v>
+        <v>0.2750467808756676</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09925844764512851</v>
+        <v>9.117936650939482e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.346404242076616</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9390092627484489</v>
+        <v>0.9496474643493836</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6403135453443253</v>
+        <v>0.5536742840549879</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7400301497474314</v>
+        <v>0.8765305308245044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0009670540547849172</v>
+        <v>0.0003045322870143921</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1185112086267391</v>
+        <v>0.2629922721055822</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1140420355929805</v>
+        <v>0.0003042600487432911</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.710359751642111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9186790169979319</v>
+        <v>0.9328632857991782</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6199050823041469</v>
+        <v>0.545498218119878</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6664555537303077</v>
+        <v>0.8372528598318209</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002205763536914236</v>
+        <v>0.000713616038130178</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1014983212678295</v>
+        <v>0.2512184911737562</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1298084661227483</v>
+        <v>0.0007129929088487263</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.993775429634059</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8983487712474147</v>
+        <v>0.9160791072489728</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5994966192639684</v>
+        <v>0.5373221521847681</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5987909077632847</v>
+        <v>0.7989116778058644</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004145682439362646</v>
+        <v>0.001377710958259144</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08647789931196667</v>
+        <v>0.2397249209153708</v>
       </c>
       <c r="F7" t="n">
-        <v>0.146531647131369</v>
+        <v>0.001376536705508931</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.231879340324252</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8780185254968977</v>
+        <v>0.8992949286987673</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5790881562237901</v>
+        <v>0.5291460862496582</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5366792849329827</v>
+        <v>0.7615051789112638</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006893971369927802</v>
+        <v>0.002352950046428341</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07327268981500433</v>
+        <v>0.2285110335262699</v>
       </c>
       <c r="F8" t="n">
-        <v>0.164185293697693</v>
+        <v>0.002350993985468162</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.432127954206575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8576882797463807</v>
+        <v>0.8825107501485618</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5586796931836117</v>
+        <v>0.5209700203145483</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4797778816976818</v>
+        <v>0.7250315193921328</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01053586385404584</v>
+        <v>0.003692412797325189</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06171588376483993</v>
+        <v>0.217576290094583</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1827436046941144</v>
+        <v>0.003689421184869109</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.601977741774911</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8373580339958636</v>
+        <v>0.8657265715983564</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5382712301434331</v>
+        <v>0.5127939543794384</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4277577666384553</v>
+        <v>0.6894888158652351</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01513718566443368</v>
+        <v>0.005446135908462157</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05165083623334254</v>
+        <v>0.2069201401002248</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2021818365842116</v>
+        <v>0.005441839062548136</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.748885173523144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8170277882453466</v>
+        <v>0.848942393048151</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5178627671032546</v>
+        <v>0.5046178884443285</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3803036279508551</v>
+        <v>0.6548751434933539</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02074670966148839</v>
+        <v>0.007661124349476657</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04293078438946211</v>
+        <v>0.1965420208792431</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2224767795629944</v>
+        <v>0.00765524348697474</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.88030671994516</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7966975424948295</v>
+        <v>0.8321582144979456</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4974543040630762</v>
+        <v>0.4964418225092186</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3371135196407365</v>
+        <v>0.621188534027288</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02739835057671034</v>
+        <v>0.01038136281789587</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03541856327801299</v>
+        <v>0.1864413570496129</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2436071412601945</v>
+        <v>0.01037361660061952</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10.00369885153484</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7763672967443125</v>
+        <v>0.8153740359477401</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4770458410228978</v>
+        <v>0.4882657565741088</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2978986063858493</v>
+        <v>0.5884269737034651</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03511320420319381</v>
+        <v>0.01364782760811504</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02898631926054911</v>
+        <v>0.1766175598946601</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2655538432951189</v>
+        <v>0.01363793838790123</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10.12651803878607</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7560370509937955</v>
+        <v>0.7985898573975346</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4566373779827194</v>
+        <v>0.4800896906389989</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2623829070226846</v>
+        <v>0.5565884009824946</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04390143549026895</v>
+        <v>0.01749849892307584</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02351522100564317</v>
+        <v>0.1670700266998033</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2883002360444245</v>
+        <v>0.01748619867554226</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10.25622075219273</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.7357068052432785</v>
+        <v>0.7818056788473292</v>
       </c>
       <c r="B15" t="n">
-        <v>0.436228914942541</v>
+        <v>0.471913624703889</v>
       </c>
       <c r="C15" t="n">
-        <v>0.230303036615784</v>
+        <v>0.5256707041120645</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05376402007376804</v>
+        <v>0.02196837366124059</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01889516790556558</v>
+        <v>0.1577981400377404</v>
       </c>
       <c r="F15" t="n">
-        <v>0.311832237062349</v>
+        <v>0.02195340959720372</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10.40026346224871</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.7153765594927614</v>
+        <v>0.7650215002971237</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4158204519023625</v>
+        <v>0.4637375587687791</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2014079470642091</v>
+        <v>0.4956717184953496</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06469434380923339</v>
+        <v>0.02708947871500169</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01502449578461307</v>
+        <v>0.1488012669965511</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3361383986771556</v>
+        <v>0.02707161855773885</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10.5621878121549</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.6950463137422443</v>
+        <v>0.7482373217469183</v>
       </c>
       <c r="B17" t="n">
-        <v>0.395411988862184</v>
+        <v>0.4555614928336692</v>
       </c>
       <c r="C17" t="n">
-        <v>0.175458666197174</v>
+        <v>0.4665892238434946</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07667966491278815</v>
+        <v>0.03289088482071922</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0118096797508866</v>
+        <v>0.140078758344419</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3612099103786408</v>
+        <v>0.03286992173636941</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10.71989135066651</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.6747160679917272</v>
+        <v>0.7314531431967128</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3750035258220056</v>
+        <v>0.4473854268985593</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1522280353078777</v>
+        <v>0.4384209410876784</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08970244335348461</v>
+        <v>0.03939872100523617</v>
       </c>
       <c r="E18" t="n">
-        <v>0.009165034027825666</v>
+        <v>0.1316299476237794</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3870405417105394</v>
+        <v>0.03937447817264737</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10.86961506416096</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.6543858222412102</v>
+        <v>0.7146689646465074</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3545950627818272</v>
+        <v>0.4392093609634494</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1315004450713642</v>
+        <v>0.4111645290226778</v>
       </c>
       <c r="D19" t="n">
-        <v>0.103741542181857</v>
+        <v>0.04663618967909036</v>
       </c>
       <c r="E19" t="n">
-        <v>0.007012408583844953</v>
+        <v>0.1234541501666467</v>
       </c>
       <c r="F19" t="n">
-        <v>0.413626531489706</v>
+        <v>0.04660852448431821</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11.01255969830264</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.6340555764906932</v>
+        <v>0.697884786096302</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3341865997416488</v>
+        <v>0.4310332950283395</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1130715697886996</v>
+        <v>0.3848175806495973</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1187733055223001</v>
+        <v>0.05462358243286451</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005280882357443415</v>
+        <v>0.1155506620216228</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4409664292926013</v>
+        <v>0.05459239027229295</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11.14992599875596</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.6137253307401762</v>
+        <v>0.6811006075460965</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3137781367014704</v>
+        <v>0.4228572290932296</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09674809989589193</v>
+        <v>0.3593776191803928</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1347725180019329</v>
+        <v>0.06337829660035778</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003906452850467144</v>
+        <v>0.1079187587816103</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4690608952806363</v>
+        <v>0.06334351427502387</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11.28291471118533</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.5933950849896591</v>
+        <v>0.6643164289958911</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2933696736612919</v>
+        <v>0.4146811631581198</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08234747267171628</v>
+        <v>0.3348420936607905</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1517132504359921</v>
+        <v>0.07291485266073502</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002831721832891239</v>
+        <v>0.1005576942994803</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4979124645816716</v>
+        <v>0.07287646134287271</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11.41272658125515</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5730648392391421</v>
+        <v>0.6475322504456856</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2729612106211135</v>
+        <v>0.4065050972230099</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06969760107390881</v>
+        <v>0.3112083741609747</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1695695966397451</v>
+        <v>0.08324491256177487</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005576867332671</v>
+        <v>0.09346669927682413</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5275252826083371</v>
+        <v>0.08320294031281579</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11.54056235462982</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.552734593488625</v>
+        <v>0.6307480718954801</v>
       </c>
       <c r="B24" t="n">
-        <v>0.252552747580935</v>
+        <v>0.3983290312879</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05863660062798519</v>
+        <v>0.2884737464746847</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1883163062896734</v>
+        <v>0.09437729905812549</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001382868318888692</v>
+        <v>0.08664497970834772</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5579048178785789</v>
+        <v>0.09433182287537002</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I24" t="n">
+        <v>11.66762277697375</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.532404347738108</v>
+        <v>0.6139638933452747</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2321442845407565</v>
+        <v>0.3901529653527901</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04901251428716187</v>
+        <v>0.2666354062567522</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2079293188125257</v>
+        <v>0.1063180161725049</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0009240814635836532</v>
+        <v>0.08009171516135262</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5890575591149209</v>
+        <v>0.1062691635393594</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I25" t="n">
+        <v>11.79510859395134</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.512074101987591</v>
+        <v>0.5971797147950693</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2117358215005782</v>
+        <v>0.3819768994176803</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04068303517540802</v>
+        <v>0.2456904525161331</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2283862033401259</v>
+        <v>0.1190702709045838</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0005950032435804999</v>
+        <v>0.07380605686592963</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6209907036429479</v>
+        <v>0.1190182208165931</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I26" t="n">
+        <v>11.924220551227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4917438562370738</v>
+        <v>0.5803955362448638</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1913273584603997</v>
+        <v>0.3738008334825704</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03351522711844697</v>
+        <v>0.2256358803654868</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2496665098308921</v>
+        <v>0.1326344963325618</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0003663831349038461</v>
+        <v>0.06778712558679145</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6537118443955425</v>
+        <v>0.1325794797683772</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12.05615939446513</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4714136104865568</v>
+        <v>0.5636113576946584</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1709188954202213</v>
+        <v>0.3656247675474605</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02738524285941853</v>
+        <v>0.2064685729085135</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2717520365263356</v>
+        <v>0.1470083762770737</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0002135874871484931</v>
+        <v>0.06203400924183244</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6872286631701585</v>
+        <v>0.1469506760799034</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.19212586933014</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4510833647360398</v>
+        <v>0.5468271791444529</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1505104323800429</v>
+        <v>0.3574487016123506</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02217803984676674</v>
+        <v>0.1881852921213861</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2946270189828705</v>
+        <v>0.1621868717272505</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0001162465545081777</v>
+        <v>0.05654576022519566</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7215486382004318</v>
+        <v>0.1621268218581206</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12.33332072148642</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4307531189855227</v>
+        <v>0.5300430005942475</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1301019693398643</v>
+        <v>0.3492726356772407</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01778709347154508</v>
+        <v>0.1707826685532263</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3182782459966572</v>
+        <v>0.1781622492660527</v>
       </c>
       <c r="E30" t="n">
-        <v>5.789324765663925e-05</v>
+        <v>0.05132139238339424</v>
       </c>
       <c r="F30" t="n">
-        <v>0.756678774618434</v>
+        <v>0.1781002333852308</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I30" t="n">
+        <v>12.4809446965984</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4104228732350057</v>
+        <v>0.5132588220440421</v>
       </c>
       <c r="B31" t="n">
-        <v>0.109693506299686</v>
+        <v>0.3410965697421308</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01411410761950686</v>
+        <v>0.1542571896305141</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3426951078226571</v>
+        <v>0.1949241117785467</v>
       </c>
       <c r="E31" t="n">
-        <v>2.559237041910087e-05</v>
+        <v>0.04635987758125686</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7926253670437916</v>
+        <v>0.194860561105552</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I31" t="n">
+        <v>12.63619854033047</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3900926274844887</v>
+        <v>0.4964746434938365</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08928504325950759</v>
+        <v>0.3329205038070209</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01106872238979544</v>
+        <v>0.1386051862987012</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3678695821794158</v>
+        <v>0.2124594317854692</v>
       </c>
       <c r="E32" t="n">
-        <v>9.558718033695163e-06</v>
+        <v>0.04166014177928649</v>
       </c>
       <c r="F32" t="n">
-        <v>0.82939380441354</v>
+        <v>0.212394822180979</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I32" t="n">
+        <v>12.80028299834703</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.3697623817339716</v>
+        <v>0.4796904649436311</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06887658021932909</v>
+        <v>0.324744437871911</v>
       </c>
       <c r="C33" t="n">
-        <v>0.008568218816421461</v>
+        <v>0.1238228176669887</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3937961636293403</v>
+        <v>0.2307525878192531</v>
       </c>
       <c r="E33" t="n">
-        <v>2.761818922958988e-06</v>
+        <v>0.03722106052422436</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8669884283923909</v>
+        <v>0.2306874360235951</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I33" t="n">
+        <v>12.97439881631249</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3494321359834546</v>
+        <v>0.4629062863934257</v>
       </c>
       <c r="B34" t="n">
-        <v>0.04846811717915066</v>
+        <v>0.3165683719368012</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006537220410568707</v>
+        <v>0.1099060532333531</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4204717420316194</v>
+        <v>0.2497854043562822</v>
       </c>
       <c r="E34" t="n">
-        <v>5.141202543732511e-07</v>
+        <v>0.03304145372847118</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9054124585334677</v>
+        <v>0.2497202633086437</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I34" t="n">
+        <v>13.15974673989125</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.3291018902329376</v>
+        <v>0.4461221078432203</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02805965413897227</v>
+        <v>0.3083923060016913</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00490739132055333</v>
+        <v>0.09685065214791727</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4478954358829719</v>
+        <v>0.2695371959455709</v>
       </c>
       <c r="E35" t="n">
-        <v>3.762182363576957e-08</v>
+        <v>0.02912007957901427</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9446680003723199</v>
+        <v>0.2694726490949821</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I35" t="n">
+        <v>13.35752751474772</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.3087716444824204</v>
+        <v>0.4293379292930148</v>
       </c>
       <c r="B36" t="n">
-        <v>0.007651191098793781</v>
+        <v>0.3002162400665814</v>
       </c>
       <c r="C36" t="n">
-        <v>0.003617130881247002</v>
+        <v>0.08465213881099938</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4760683864919488</v>
+        <v>0.2899848163420439</v>
       </c>
       <c r="E36" t="n">
-        <v>7.507687845258531e-11</v>
+        <v>0.0254556273689207</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9847561584537103</v>
+        <v>0.2899214708447931</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I36" t="n">
+        <v>13.56894188654631</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.2884413987319034</v>
+        <v>0.4125537507428093</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.0127572719413846</v>
+        <v>0.2920401741314715</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002611264295020431</v>
+        <v>0.07330577387846864</v>
       </c>
       <c r="D37" t="n">
-        <v>0.504993519077933</v>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+        <v>0.3111027136795954</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.02204670897863624</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.3110411923568707</v>
+      </c>
       <c r="G37" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I37" t="n">
+        <v>13.79521078085488</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.2681111529813864</v>
+        <v>0.3957695721926039</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.03316573498156303</v>
+        <v>0.2838641081963616</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001840729150515646</v>
+        <v>0.06280651943170666</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5346752770492558</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+        <v>0.3328629930317065</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.01889184864154076</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.3328039249342895</v>
+      </c>
       <c r="G38" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I38" t="n">
+        <v>14.03896614385244</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.2477809072308693</v>
+        <v>0.3789853936423985</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.05357419802174153</v>
+        <v>0.2756880422612517</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00126225744212129</v>
+        <v>0.05314899661532221</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5651193358998507</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+        <v>0.3552354881471596</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.01598947049455535</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.3551794975385055</v>
+      </c>
       <c r="G39" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I39" t="n">
+        <v>14.30449256965408</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2274506614803523</v>
+        <v>0.3622012150921929</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.07398266106191995</v>
+        <v>0.2675119763261418</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0008380526995765992</v>
+        <v>0.04432743337545373</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5963323033757115</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+        <v>0.3781878447822213</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.01333788321729843</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.3781355383035742</v>
+      </c>
       <c r="G40" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I40" t="n">
+        <v>14.59605991234487</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.2071204157298353</v>
+        <v>0.3454170365419875</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.09439112410209832</v>
+        <v>0.2593359103910319</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0005354617703976855</v>
+        <v>0.03633559891397207</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6283214128079518</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+        <v>0.4016856189900108</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.01093526076375105</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.4016375707056032</v>
+      </c>
       <c r="G41" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14.91793802600988</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.1867901699793182</v>
+        <v>0.3286328579917821</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.1147995871422768</v>
+        <v>0.251159844455922</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0003266407130970014</v>
+        <v>0.02916671987816118</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6610942167979308</v>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+        <v>0.4256923951656209</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.008779617720567729</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.4256491290932434</v>
+      </c>
       <c r="G42" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I42" t="n">
+        <v>15.2743967647342</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1664599242288012</v>
+        <v>0.3118486794415767</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.1352080501824552</v>
+        <v>0.2429837785208122</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0001882141494849349</v>
+        <v>0.02281337070533028</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6946582887850488</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+        <v>0.4501699309317049</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.006868777060499509</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.450131900528386</v>
+      </c>
       <c r="G43" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I43" t="n">
+        <v>15.66970598260288</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1461296784782842</v>
+        <v>0.2950645008913713</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.1556165132226336</v>
+        <v>0.2348077125857023</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0001009272790372574</v>
+        <v>0.01726732610717463</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7290209404489306</v>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+        <v>0.475078339752791</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.005200326753265392</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.4750459036194205</v>
+      </c>
       <c r="G44" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I44" t="n">
+        <v>16.108135533701</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1257994327277671</v>
+        <v>0.2782803223411657</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.1760249762628121</v>
+        <v>0.2266316466505924</v>
       </c>
       <c r="C45" t="n">
-        <v>4.928956040692043e-05</v>
+        <v>0.01251935568332426</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7641889634243603</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+        <v>0.5003763288537302</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.003771559340850304</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.5003497215943263</v>
+      </c>
       <c r="G45" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I45" t="n">
+        <v>16.59395527211365</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1054691869772501</v>
+        <v>0.2614961437909603</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1964334393029905</v>
+        <v>0.2184555807154825</v>
       </c>
       <c r="C46" t="n">
-        <v>2.120878630138677e-05</v>
+        <v>0.008558925205362878</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8001684044865127</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+        <v>0.5260215226117373</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.002579384032273175</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.5260008192279463</v>
+      </c>
       <c r="G46" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I46" t="n">
+        <v>17.13143505192589</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.08513894122673304</v>
+        <v>0.2447119652407549</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.2168419023431689</v>
+        <v>0.2102795147803726</v>
       </c>
       <c r="C47" t="n">
-        <v>7.613867874851436e-06</v>
+        <v>0.00537373648392118</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8369643842749851</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+        <v>0.5519709275058603</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.001620191255962268</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.5519559986925859</v>
+      </c>
       <c r="G47" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I47" t="n">
+        <v>17.73780943696076</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.06480869547621593</v>
+        <v>0.2279277866905494</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.2372503653833474</v>
+        <v>0.2021034488452627</v>
       </c>
       <c r="C48" t="n">
-        <v>2.064007277207219e-06</v>
+        <v>0.002948960031362081</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8745809709116827</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+        <v>0.5781816547817186</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0008896266994206539</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.5781721084300303</v>
+      </c>
       <c r="G48" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I48" t="n">
+        <v>18.54934419692236</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.04447844972569892</v>
+        <v>0.2111436081403439</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.2576588284235258</v>
+        <v>0.1939273829101528</v>
       </c>
       <c r="C49" t="n">
-        <v>3.408677485300572e-07</v>
+        <v>0.001265794703098323</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9130211218190435</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+        <v>0.6046121823928744</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0003821669684101948</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.6046072817381901</v>
+      </c>
       <c r="G49" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I49" t="n">
+        <v>19.58287113567637</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.02414820397518191</v>
+        <v>0.1943594295901385</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.2780672914637042</v>
+        <v>0.185751316975043</v>
       </c>
       <c r="C50" t="n">
-        <v>1.834540468912758e-08</v>
+        <v>0.0002981605508915149</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9522867103347777</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+        <v>0.6312250414651528</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9.014466113575931e-05</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.631223575542628</v>
+      </c>
       <c r="G50" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I50" t="n">
+        <v>20.81497042138794</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.003817958224664797</v>
+        <v>0.1775752510399331</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2984757545038828</v>
+        <v>0.1775752510399331</v>
       </c>
       <c r="C51" t="n">
-        <v>2.698923600556864e-12</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9923786603529973</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+        <v>0.6579962425837322</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.6579962425837322</v>
+      </c>
       <c r="G51" t="n">
-        <v>0.5285244910322933</v>
+        <v>1.841820511447933</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.845207169872338</v>
+      </c>
+      <c r="I51" t="n">
+        <v>22.22222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3204,27 +4038,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Project_x0020_Type xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9">Enter Choice #1</Project_x0020_Type>
-    <TaxCatchAll xmlns="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Project_x0020_Name xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AD7B64A-E872-4A2E-8236-27FA56BBA2B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773B2466-CE79-44C0-8BF4-7463D1D62640}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A52C6F0E-ED6D-40A0-8AF1-397E4488842C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC4F269D-187D-4834-826B-E4D57C9654FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{674415AD-4AC6-43DD-A981-36349D2C4F91}"/>
 </file>